--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.901</v>
+        <v>16.0791</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.479199999999997</v>
+        <v>5.602999999999998</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.03070000000002</v>
+        <v>18.11880000000003</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.511599999999998</v>
+        <v>6.527399999999997</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.6988</v>
+        <v>16.6136</v>
       </c>
     </row>
     <row r="15">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.980400000000001</v>
+        <v>4.707100000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.1278</v>
+        <v>6.053599999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.491</v>
+        <v>16.5635</v>
       </c>
     </row>
     <row r="20">
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.884099999999997</v>
+        <v>8.901399999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.470300000000005</v>
+        <v>6.203200000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.9255</v>
+        <v>16.0271</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.456600000000004</v>
+        <v>6.270700000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.4713</v>
+        <v>16.53909999999999</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.212699999999995</v>
+        <v>5.382999999999996</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.16710000000002</v>
+        <v>17.44590000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.308600000000006</v>
+        <v>8.502700000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.772900000000007</v>
+        <v>8.703100000000004</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.63360000000002</v>
+        <v>16.70460000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.5349</v>
+        <v>16.5375</v>
       </c>
     </row>
     <row r="39">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.534800000000001</v>
+        <v>4.407200000000005</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.5807</v>
+        <v>16.6748</v>
       </c>
     </row>
     <row r="48">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.23440000000001</v>
+        <v>17.21920000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.0378</v>
+        <v>17.0658</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.526400000000002</v>
+        <v>6.280699999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.40010000000001</v>
+        <v>16.4576</v>
       </c>
     </row>
     <row r="56">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.338199999999997</v>
+        <v>5.524099999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.441899999999996</v>
+        <v>5.323799999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.45660000000003</v>
+        <v>17.34480000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.95320000000001</v>
+        <v>18.10040000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.492200000000001</v>
+        <v>5.813599999999996</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.19629999999998</v>
+        <v>16.30249999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.831000000000003</v>
+        <v>9.909700000000003</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.75139999999999</v>
+        <v>16.68189999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.626299999999998</v>
+        <v>5.425299999999998</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.798699999999998</v>
+        <v>5.4315</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.64</v>
+        <v>16.60450000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.8805</v>
+        <v>5.321699999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.65760000000003</v>
+        <v>18.73950000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.083299999999996</v>
+        <v>6.373799999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.65110000000001</v>
+        <v>16.56000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8014</v>
+        <v>16.7959</v>
       </c>
     </row>
   </sheetData>
